--- a/SchedulingData/dynamic14/pso/scheduling2_7.xlsx
+++ b/SchedulingData/dynamic14/pso/scheduling2_7.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E46"/>
+  <dimension ref="A1:E42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,140 +462,140 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pond62</t>
+          <t>pond16</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>249.72</v>
+        <v>255.06</v>
       </c>
       <c r="D2" t="n">
-        <v>314.04</v>
+        <v>316.92</v>
       </c>
       <c r="E2" t="n">
-        <v>12.196</v>
+        <v>13.408</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pond58</t>
+          <t>pond29</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>314.04</v>
+        <v>316.92</v>
       </c>
       <c r="D3" t="n">
-        <v>370.84</v>
+        <v>371.18</v>
       </c>
       <c r="E3" t="n">
-        <v>9.116</v>
+        <v>10.592</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pond30</t>
+          <t>pond32</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>214.4</v>
+        <v>243.46</v>
       </c>
       <c r="D4" t="n">
-        <v>276.48</v>
+        <v>316.56</v>
       </c>
       <c r="E4" t="n">
-        <v>15.292</v>
+        <v>10.144</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pond4</t>
+          <t>pond60</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>201.4</v>
+        <v>230.72</v>
       </c>
       <c r="D5" t="n">
-        <v>237.28</v>
+        <v>281.88</v>
       </c>
       <c r="E5" t="n">
-        <v>13.472</v>
+        <v>13.012</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pond46</t>
+          <t>pond17</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>238.24</v>
+        <v>248.58</v>
       </c>
       <c r="D6" t="n">
-        <v>303.44</v>
+        <v>288.78</v>
       </c>
       <c r="E6" t="n">
-        <v>14.196</v>
+        <v>10.932</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pond43</t>
+          <t>pond59</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>237.28</v>
+        <v>288.78</v>
       </c>
       <c r="D7" t="n">
-        <v>299.82</v>
+        <v>368.1</v>
       </c>
       <c r="E7" t="n">
-        <v>10.348</v>
+        <v>6.62</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pond63</t>
+          <t>pond14</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>303.44</v>
+        <v>240.54</v>
       </c>
       <c r="D8" t="n">
-        <v>371.34</v>
+        <v>304.44</v>
       </c>
       <c r="E8" t="n">
-        <v>9.036</v>
+        <v>11.196</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -603,32 +603,32 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>299.82</v>
+        <v>304.44</v>
       </c>
       <c r="D9" t="n">
-        <v>375.76</v>
+        <v>345.68</v>
       </c>
       <c r="E9" t="n">
-        <v>6.864</v>
+        <v>7.712</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pond48</t>
+          <t>pond10</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>371.34</v>
+        <v>345.68</v>
       </c>
       <c r="D10" t="n">
-        <v>431.44</v>
+        <v>395.44</v>
       </c>
       <c r="E10" t="n">
-        <v>4.656</v>
+        <v>5.336</v>
       </c>
     </row>
     <row r="11">
@@ -637,93 +637,93 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pond57</t>
+          <t>pond58</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>276.48</v>
+        <v>281.88</v>
       </c>
       <c r="D11" t="n">
-        <v>344.78</v>
+        <v>328.88</v>
       </c>
       <c r="E11" t="n">
-        <v>13.052</v>
+        <v>9.932</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pond52</t>
+          <t>pond51</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>431.44</v>
+        <v>368.1</v>
       </c>
       <c r="D12" t="n">
-        <v>483.84</v>
+        <v>409.78</v>
       </c>
       <c r="E12" t="n">
-        <v>2.016</v>
+        <v>3.092</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pond3</t>
+          <t>pond23</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>217.74</v>
+        <v>221.28</v>
       </c>
       <c r="D13" t="n">
-        <v>266.7</v>
+        <v>269.3</v>
       </c>
       <c r="E13" t="n">
-        <v>14.8</v>
+        <v>14.06</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pond60</t>
+          <t>pond63</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>266.7</v>
+        <v>328.88</v>
       </c>
       <c r="D14" t="n">
-        <v>342.76</v>
+        <v>411.38</v>
       </c>
       <c r="E14" t="n">
-        <v>11.324</v>
+        <v>4.772</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>pond12</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>483.84</v>
+        <v>371.18</v>
       </c>
       <c r="D15" t="n">
-        <v>571.41</v>
+        <v>416.6</v>
       </c>
       <c r="E15" t="n">
-        <v>30</v>
+        <v>7.68</v>
       </c>
     </row>
     <row r="16">
@@ -732,188 +732,188 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pond32</t>
+          <t>pond57</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>571.41</v>
+        <v>316.56</v>
       </c>
       <c r="D16" t="n">
-        <v>615.61</v>
+        <v>394.66</v>
       </c>
       <c r="E16" t="n">
-        <v>26.28</v>
+        <v>7.904</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pond28</t>
+          <t>pond48</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>344.78</v>
+        <v>395.44</v>
       </c>
       <c r="D17" t="n">
-        <v>410.56</v>
+        <v>490.04</v>
       </c>
       <c r="E17" t="n">
-        <v>10.084</v>
+        <v>0.956</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pond41</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>375.76</v>
+        <v>490.04</v>
       </c>
       <c r="D18" t="n">
-        <v>453.7</v>
+        <v>555.13</v>
       </c>
       <c r="E18" t="n">
-        <v>4.16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pond25</t>
+          <t>pond62</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>615.61</v>
+        <v>416.6</v>
       </c>
       <c r="D19" t="n">
-        <v>680.51</v>
+        <v>500.92</v>
       </c>
       <c r="E19" t="n">
-        <v>23.86</v>
+        <v>3.368</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pond59</t>
+          <t>pond55</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>342.76</v>
+        <v>411.38</v>
       </c>
       <c r="D20" t="n">
-        <v>397.18</v>
+        <v>456.98</v>
       </c>
       <c r="E20" t="n">
-        <v>7.012</v>
+        <v>0.852</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pond61</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>370.84</v>
+        <v>456.98</v>
       </c>
       <c r="D21" t="n">
-        <v>419.3</v>
+        <v>532.1799999999999</v>
       </c>
       <c r="E21" t="n">
-        <v>6.38</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pond40</t>
+          <t>pond1</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>410.56</v>
+        <v>394.66</v>
       </c>
       <c r="D22" t="n">
-        <v>476.6</v>
+        <v>462.66</v>
       </c>
       <c r="E22" t="n">
-        <v>6.08</v>
+        <v>4.744</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pond21</t>
+          <t>pond4</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>237.58</v>
+        <v>409.78</v>
       </c>
       <c r="D23" t="n">
-        <v>303.78</v>
+        <v>475.56</v>
       </c>
       <c r="E23" t="n">
-        <v>11.772</v>
+        <v>0.144</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pond39</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>419.3</v>
+        <v>475.56</v>
       </c>
       <c r="D24" t="n">
-        <v>472.7</v>
+        <v>571.87</v>
       </c>
       <c r="E24" t="n">
-        <v>3.66</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pond16</t>
+          <t>pond21</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>303.78</v>
+        <v>269.3</v>
       </c>
       <c r="D25" t="n">
-        <v>350.84</v>
+        <v>335.3</v>
       </c>
       <c r="E25" t="n">
-        <v>9.176</v>
+        <v>9.08</v>
       </c>
     </row>
     <row r="26">
@@ -922,17 +922,17 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pond53</t>
+          <t>pond26</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>472.7</v>
+        <v>335.3</v>
       </c>
       <c r="D26" t="n">
-        <v>530.3</v>
+        <v>399.52</v>
       </c>
       <c r="E26" t="n">
-        <v>0.02</v>
+        <v>4.768</v>
       </c>
     </row>
     <row r="27">
@@ -941,17 +941,17 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>pond19</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>530.3</v>
+        <v>399.52</v>
       </c>
       <c r="D27" t="n">
-        <v>616.96</v>
+        <v>445.66</v>
       </c>
       <c r="E27" t="n">
-        <v>30</v>
+        <v>1.284</v>
       </c>
     </row>
     <row r="28">
@@ -960,60 +960,60 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>pond2</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>616.96</v>
+        <v>445.66</v>
       </c>
       <c r="D28" t="n">
-        <v>692.12</v>
+        <v>534.59</v>
       </c>
       <c r="E28" t="n">
-        <v>27.624</v>
+        <v>30</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>pond29</t>
+          <t>pond15</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>350.84</v>
+        <v>532.1799999999999</v>
       </c>
       <c r="D29" t="n">
-        <v>405.1</v>
+        <v>579.16</v>
       </c>
       <c r="E29" t="n">
-        <v>6.36</v>
+        <v>27.492</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>pond36</t>
+          <t>pond28</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>476.6</v>
+        <v>500.92</v>
       </c>
       <c r="D30" t="n">
-        <v>545.2</v>
+        <v>561.8</v>
       </c>
       <c r="E30" t="n">
-        <v>1.82</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -1021,10 +1021,10 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>545.2</v>
+        <v>561.8</v>
       </c>
       <c r="D31" t="n">
-        <v>628.16</v>
+        <v>647.6</v>
       </c>
       <c r="E31" t="n">
         <v>30</v>
@@ -1032,21 +1032,21 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>pond15</t>
+          <t>pond41</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>405.1</v>
+        <v>571.87</v>
       </c>
       <c r="D32" t="n">
-        <v>451.38</v>
+        <v>645.21</v>
       </c>
       <c r="E32" t="n">
-        <v>3.852</v>
+        <v>27.296</v>
       </c>
     </row>
     <row r="33">
@@ -1055,55 +1055,55 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>pond10</t>
+          <t>pond18</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>692.12</v>
+        <v>534.59</v>
       </c>
       <c r="D33" t="n">
-        <v>722.28</v>
+        <v>599.0700000000001</v>
       </c>
       <c r="E33" t="n">
-        <v>25.248</v>
+        <v>27.192</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>pond33</t>
+          <t>pond3</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>628.16</v>
+        <v>462.66</v>
       </c>
       <c r="D34" t="n">
-        <v>696.5</v>
+        <v>511.62</v>
       </c>
       <c r="E34" t="n">
-        <v>27.296</v>
+        <v>1.468</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>pond19</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>451.38</v>
+        <v>511.62</v>
       </c>
       <c r="D35" t="n">
-        <v>512.22</v>
+        <v>610.1799999999999</v>
       </c>
       <c r="E35" t="n">
-        <v>0.368</v>
+        <v>30</v>
       </c>
     </row>
     <row r="36">
@@ -1112,112 +1112,112 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond46</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>512.22</v>
+        <v>555.13</v>
       </c>
       <c r="D36" t="n">
-        <v>602.98</v>
+        <v>615.73</v>
       </c>
       <c r="E36" t="n">
-        <v>30</v>
+        <v>25.62</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>pond56</t>
+          <t>pond25</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>397.18</v>
+        <v>599.0700000000001</v>
       </c>
       <c r="D37" t="n">
-        <v>461.88</v>
+        <v>634.5700000000001</v>
       </c>
       <c r="E37" t="n">
-        <v>3.632</v>
+        <v>24.772</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>pond52</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>461.88</v>
+        <v>579.16</v>
       </c>
       <c r="D38" t="n">
-        <v>526.62</v>
+        <v>646.66</v>
       </c>
       <c r="E38" t="n">
-        <v>30</v>
+        <v>24.852</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>pond38</t>
+          <t>pond22</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>526.62</v>
+        <v>646.66</v>
       </c>
       <c r="D39" t="n">
-        <v>587.62</v>
+        <v>704.9</v>
       </c>
       <c r="E39" t="n">
-        <v>25.58</v>
+        <v>22.148</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>pond23</t>
+          <t>pond2</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>587.62</v>
+        <v>615.73</v>
       </c>
       <c r="D40" t="n">
-        <v>635.64</v>
+        <v>685.49</v>
       </c>
       <c r="E40" t="n">
-        <v>22.408</v>
+        <v>23.244</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>pond22</t>
+          <t>pond33</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>602.98</v>
+        <v>645.21</v>
       </c>
       <c r="D41" t="n">
-        <v>646.8200000000001</v>
+        <v>678.65</v>
       </c>
       <c r="E41" t="n">
-        <v>27.296</v>
+        <v>24.592</v>
       </c>
     </row>
     <row r="42">
@@ -1226,93 +1226,17 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>pond11</t>
+          <t>pond44</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>722.28</v>
+        <v>634.5700000000001</v>
       </c>
       <c r="D42" t="n">
-        <v>763.34</v>
+        <v>695.23</v>
       </c>
       <c r="E42" t="n">
-        <v>22.272</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="n">
-        <v>1</v>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>pond55</t>
-        </is>
-      </c>
-      <c r="C43" t="n">
-        <v>453.7</v>
-      </c>
-      <c r="D43" t="n">
-        <v>528.7</v>
-      </c>
-      <c r="E43" t="n">
-        <v>0.24</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="n">
-        <v>1</v>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>depot2</t>
-        </is>
-      </c>
-      <c r="C44" t="n">
-        <v>528.7</v>
-      </c>
-      <c r="D44" t="n">
-        <v>605.12</v>
-      </c>
-      <c r="E44" t="n">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="n">
-        <v>6</v>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>pond54</t>
-        </is>
-      </c>
-      <c r="C45" t="n">
-        <v>646.8200000000001</v>
-      </c>
-      <c r="D45" t="n">
-        <v>697.98</v>
-      </c>
-      <c r="E45" t="n">
-        <v>24.32</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="n">
-        <v>1</v>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>pond18</t>
-        </is>
-      </c>
-      <c r="C46" t="n">
-        <v>605.12</v>
-      </c>
-      <c r="D46" t="n">
-        <v>674.6</v>
-      </c>
-      <c r="E46" t="n">
-        <v>27.192</v>
+        <v>21.316</v>
       </c>
     </row>
   </sheetData>
